--- a/Accounts-Schedules/تدريب ايرالو 14-7.xlsx
+++ b/Accounts-Schedules/تدريب ايرالو 14-7.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Please note that the below should start training tomorrow in the new cairo site from 9 am to 6 pm.</t>
   </si>
@@ -121,6 +121,42 @@
   </si>
   <si>
     <t>هاجر زين</t>
+  </si>
+  <si>
+    <t>Arrival: 09:00 AM</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Pick-Up Point</t>
+  </si>
+  <si>
+    <t>Departure: 05:00 PM</t>
+  </si>
+  <si>
+    <t>Basma El Shawadfy Saleh</t>
+  </si>
+  <si>
+    <t>مصر الجديدة</t>
+  </si>
+  <si>
+    <t>ألف مسكن</t>
+  </si>
+  <si>
+    <t>Start date: 15/07/2025 (Tuesday)</t>
+  </si>
+  <si>
+    <t>معادي</t>
+  </si>
+  <si>
+    <t>End Date: 18/06/2025 (Friday)</t>
+  </si>
+  <si>
+    <t>دائري العبور</t>
   </si>
 </sst>
 </file>
@@ -134,13 +170,34 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -300,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,13 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF46BDC6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,137 +770,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,22 +910,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1418,73 +1496,73 @@
       </c>
     </row>
     <row r="2" ht="15.25"/>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="15.25" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="15.25" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>1153452396</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="15.25" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="13">
         <v>1158742495</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="15.25" spans="1:4">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="13">
         <v>1555589033</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="15.25" spans="1:4">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="13">
         <v>1061261397</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1497,13 +1575,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A3:G5"/>
+      <selection activeCell="A3" sqref="A3:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="23.8181818181818" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.3636363636364" style="1" customWidth="1"/>
@@ -1529,42 +1607,42 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>0.375</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C3" s="2">
         <v>1061261397</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1572,25 +1650,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>0.375</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C4" s="2">
         <v>1555589033</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1598,25 +1676,25 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C5" s="2">
         <v>1158742495</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1624,30 +1702,87 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>0.375</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C6" s="2">
         <v>1153452396</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25"/>
+    <row r="9" ht="15.25" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:H6" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A3:H6">
+    <sortState ref="A2:H6">
       <sortCondition ref="F2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب ايرالو 14-7.xlsx
+++ b/Accounts-Schedules/تدريب ايرالو 14-7.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Please note that the below should start training tomorrow in the new cairo site from 9 am to 6 pm.</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>دائري العبور</t>
+  </si>
+  <si>
+    <t>Start date: 21/07/2025 (Monday)</t>
+  </si>
+  <si>
+    <t>End Date: 25/06/2025 (Friday)</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +203,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -770,137 +783,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,16 +944,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1497,72 +1528,72 @@
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="19">
         <v>1153452396</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="19">
         <v>1158742495</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="19">
         <v>1555589033</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="19">
         <v>1061261397</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1575,13 +1606,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="23.8181818181818" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.3636363636364" style="1" customWidth="1"/>
@@ -1780,6 +1811,102 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" ht="15.25"/>
+    <row r="16" ht="15.25" spans="4:6">
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="4:6">
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="4:6">
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1555589033</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1158742495</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:H6" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A2:H6">

--- a/Accounts-Schedules/تدريب ايرالو 14-7.xlsx
+++ b/Accounts-Schedules/تدريب ايرالو 14-7.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>Please note that the below should start training tomorrow in the new cairo site from 9 am to 6 pm.</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>End Date: 25/06/2025 (Friday)</t>
+  </si>
+  <si>
+    <t>Start date: 28/07/2025 (Monday)</t>
+  </si>
+  <si>
+    <t>End Date: 01/08/2025 (Friday)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +217,14 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -783,137 +797,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,16 +976,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1528,72 +1545,72 @@
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>1153452396</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <v>1158742495</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <v>1555589033</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <v>1061261397</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1606,10 +1623,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1850,61 +1867,115 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1555589033</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1158742495</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="15" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25"/>
+    <row r="25" ht="15.25" spans="4:6">
+      <c r="D25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="4:6">
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="4:6">
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="2:2">
+      <c r="B28" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="2:2">
+      <c r="B29" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="2:10">
+      <c r="B30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1555589033</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="2:10">
+      <c r="B31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1158742495</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
